--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBAF03-8907-A34E-A1E0-170566D40924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878F3A9-42C2-F44E-B83E-8587F8A51779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
   <si>
     <t>DOI</t>
   </si>
@@ -143,13 +143,76 @@
   </si>
   <si>
     <t>KL divergence surface markers</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Protein count</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +224,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,17 +283,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,15 +612,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="232" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="232" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +642,23 @@
       <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -566,8 +674,23 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -583,8 +706,23 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -600,8 +738,23 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -617,8 +770,23 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -634,8 +802,23 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -651,8 +834,23 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -668,8 +866,23 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -685,8 +898,23 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -702,8 +930,23 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -719,8 +962,23 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -736,8 +994,23 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -753,8 +1026,23 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -770,8 +1058,23 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -787,8 +1090,23 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -804,8 +1122,23 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -821,8 +1154,23 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -838,8 +1186,23 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -855,8 +1218,23 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -872,8 +1250,23 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -889,8 +1282,23 @@
       <c r="E21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -906,8 +1314,23 @@
       <c r="E22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -922,6 +1345,21 @@
       </c>
       <c r="E23" t="s">
         <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878F3A9-42C2-F44E-B83E-8587F8A51779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD19364-F67A-0144-B94A-E7C29052BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>DOI</t>
   </si>
@@ -206,6 +206,75 @@
   </si>
   <si>
     <t>Constant</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abj8194_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abl8266_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abo4094_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq1366_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade4984_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adg0699_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adg0699_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adg0699_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adg0699_log_fig4</t>
   </si>
 </sst>
 </file>
@@ -612,425 +681,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="232" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="232" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
       <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>57</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
       <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
       <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
       <c r="I11" t="s">
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -1039,94 +1144,103 @@
         <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
       <c r="I14" t="s">
         <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
       <c r="I15" t="s">
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1135,30 +1249,33 @@
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1167,198 +1284,219 @@
         <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>53</v>
       </c>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
       <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>52</v>
       </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
       <c r="I19" t="s">
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>46</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>60</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>46</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>60</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>61</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>46</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>61</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>50</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD19364-F67A-0144-B94A-E7C29052BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC048EC1-313B-5941-B219-6EAB4B4A4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
   <si>
     <t>DOI</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Cell count</t>
-  </si>
-  <si>
-    <t>Protein count</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -683,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="232" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -732,7 +729,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -767,7 +764,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -802,7 +799,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -858,13 +855,13 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -896,7 +893,7 @@
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -907,7 +904,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -977,7 +974,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1012,7 +1009,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1047,7 +1044,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1138,13 +1135,13 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
         <v>50</v>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1187,7 +1184,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1243,13 +1240,13 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1278,13 +1275,13 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
         <v>50</v>
@@ -1292,7 +1289,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1327,7 +1324,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1386,10 +1383,10 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
         <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>61</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1421,10 +1418,10 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
         <v>60</v>
-      </c>
-      <c r="J21" t="s">
-        <v>61</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
@@ -1432,7 +1429,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1456,10 +1453,10 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
         <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1491,10 +1488,10 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
         <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>61</v>
       </c>
       <c r="K23" t="s">
         <v>50</v>

--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC048EC1-313B-5941-B219-6EAB4B4A4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4861DDA-1BD4-E54E-B981-050CA2EB2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="232" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -753,10 +753,10 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>

--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4861DDA-1BD4-E54E-B981-050CA2EB2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6B536-A062-4345-B91B-2348FA81EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
   <si>
     <t>DOI</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Measured value</t>
-  </si>
-  <si>
-    <t>RNA count</t>
   </si>
   <si>
     <t>Count</t>
@@ -680,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="232" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="232" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -729,7 +726,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -791,7 +788,7 @@
         <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>50</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -823,10 +820,10 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
         <v>50</v>
@@ -834,7 +831,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -855,13 +852,13 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -893,10 +890,10 @@
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>50</v>
@@ -904,7 +901,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -931,7 +928,7 @@
         <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
@@ -939,7 +936,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -966,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
         <v>50</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1001,7 +998,7 @@
         <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>50</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1036,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1068,10 +1065,10 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
         <v>50</v>
@@ -1079,7 +1076,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1103,10 +1100,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
         <v>50</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1135,13 +1132,13 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
         <v>50</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1173,10 +1170,10 @@
         <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
         <v>50</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1208,10 +1205,10 @@
         <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1240,13 +1237,13 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1275,13 +1272,13 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
         <v>50</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1316,7 +1313,7 @@
         <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1348,10 +1345,10 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1383,10 +1380,10 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
         <v>59</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1418,10 +1415,10 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
         <v>59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
@@ -1429,7 +1426,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1453,10 +1450,10 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
         <v>59</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1488,10 +1485,10 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" t="s">
         <v>59</v>
-      </c>
-      <c r="J23" t="s">
-        <v>60</v>
       </c>
       <c r="K23" t="s">
         <v>50</v>

--- a/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6B536-A062-4345-B91B-2348FA81EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039BA290-68CC-1D4F-8DC6-FAC3D45DE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>10.1126:scisignal.adg0699</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>RFU (normalized to CFU)</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -269,25 +260,28 @@
   </si>
   <si>
     <t>10.1126:scisignal.adg0699_log_fig4</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -364,14 +358,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="232" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -705,28 +699,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -741,27 +735,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -776,27 +770,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -811,27 +805,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -846,27 +840,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -881,27 +875,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -916,27 +910,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -951,27 +945,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -986,27 +980,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1021,27 +1015,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1056,27 +1050,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1091,27 +1085,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1126,27 +1120,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1161,27 +1155,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1196,27 +1190,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1231,27 +1225,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1266,27 +1260,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1301,27 +1295,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1336,27 +1330,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1371,27 +1365,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1406,27 +1400,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1441,27 +1435,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1476,22 +1470,22 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
